--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.50665997833097</v>
+        <v>11.90597433333333</v>
       </c>
       <c r="H2">
-        <v>5.50665997833097</v>
+        <v>35.717923</v>
       </c>
       <c r="I2">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="J2">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.69417104994304</v>
+        <v>17.47090666666666</v>
       </c>
       <c r="N2">
-        <v>7.69417104994304</v>
+        <v>52.41271999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9803569739482672</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9803569739482673</v>
       </c>
       <c r="Q2">
-        <v>42.36918378715411</v>
+        <v>208.0081663533955</v>
       </c>
       <c r="R2">
-        <v>42.36918378715411</v>
+        <v>1872.07349718056</v>
       </c>
       <c r="S2">
-        <v>0.004153005876708902</v>
+        <v>0.0087204220227511</v>
       </c>
       <c r="T2">
-        <v>0.004153005876708902</v>
+        <v>0.008720422022751102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1200.68090417364</v>
+        <v>11.90597433333333</v>
       </c>
       <c r="H3">
-        <v>1200.68090417364</v>
+        <v>35.717923</v>
       </c>
       <c r="I3">
-        <v>0.9055280098475663</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="J3">
-        <v>0.9055280098475663</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>7.69417104994304</v>
+        <v>0.16459</v>
       </c>
       <c r="N3">
-        <v>7.69417104994304</v>
+        <v>0.49377</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0092357516081294</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.0092357516081294</v>
       </c>
       <c r="Q3">
-        <v>9238.244253112254</v>
+        <v>1.959604315523333</v>
       </c>
       <c r="R3">
-        <v>9238.244253112254</v>
+        <v>17.63643883971</v>
       </c>
       <c r="S3">
-        <v>0.9055280098475663</v>
+        <v>8.215339295830881E-05</v>
       </c>
       <c r="T3">
-        <v>0.9055280098475663</v>
+        <v>8.215339295830881E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>11.90597433333333</v>
+      </c>
+      <c r="H4">
+        <v>35.717923</v>
+      </c>
+      <c r="I4">
+        <v>0.008895149679642379</v>
+      </c>
+      <c r="J4">
+        <v>0.008895149679642379</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1854676666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.556403</v>
+      </c>
+      <c r="O4">
+        <v>0.01040727444360334</v>
+      </c>
+      <c r="P4">
+        <v>0.01040727444360334</v>
+      </c>
+      <c r="Q4">
+        <v>2.208173278996556</v>
+      </c>
+      <c r="R4">
+        <v>19.873559510969</v>
+      </c>
+      <c r="S4">
+        <v>9.257426393296859E-05</v>
+      </c>
+      <c r="T4">
+        <v>9.257426393296859E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>119.758062174661</v>
-      </c>
-      <c r="H4">
-        <v>119.758062174661</v>
-      </c>
-      <c r="I4">
-        <v>0.09031898427572468</v>
-      </c>
-      <c r="J4">
-        <v>0.09031898427572468</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.69417104994304</v>
-      </c>
-      <c r="N4">
-        <v>7.69417104994304</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>921.4390149815553</v>
-      </c>
-      <c r="R4">
-        <v>921.4390149815553</v>
-      </c>
-      <c r="S4">
-        <v>0.09031898427572468</v>
-      </c>
-      <c r="T4">
-        <v>0.09031898427572468</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1205.102620666667</v>
+      </c>
+      <c r="H5">
+        <v>3615.307862</v>
+      </c>
+      <c r="I5">
+        <v>0.9003520325209805</v>
+      </c>
+      <c r="J5">
+        <v>0.9003520325209804</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>17.47090666666666</v>
+      </c>
+      <c r="N5">
+        <v>52.41271999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.9803569739482672</v>
+      </c>
+      <c r="P5">
+        <v>0.9803569739482673</v>
+      </c>
+      <c r="Q5">
+        <v>21054.23540942274</v>
+      </c>
+      <c r="R5">
+        <v>189488.1186848046</v>
+      </c>
+      <c r="S5">
+        <v>0.8826663940904402</v>
+      </c>
+      <c r="T5">
+        <v>0.8826663940904402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1205.102620666667</v>
+      </c>
+      <c r="H6">
+        <v>3615.307862</v>
+      </c>
+      <c r="I6">
+        <v>0.9003520325209805</v>
+      </c>
+      <c r="J6">
+        <v>0.9003520325209804</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.16459</v>
+      </c>
+      <c r="N6">
+        <v>0.49377</v>
+      </c>
+      <c r="O6">
+        <v>0.0092357516081294</v>
+      </c>
+      <c r="P6">
+        <v>0.0092357516081294</v>
+      </c>
+      <c r="Q6">
+        <v>198.3478403355267</v>
+      </c>
+      <c r="R6">
+        <v>1785.13056301974</v>
+      </c>
+      <c r="S6">
+        <v>0.00831542773223822</v>
+      </c>
+      <c r="T6">
+        <v>0.008315427732238218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1205.102620666667</v>
+      </c>
+      <c r="H7">
+        <v>3615.307862</v>
+      </c>
+      <c r="I7">
+        <v>0.9003520325209805</v>
+      </c>
+      <c r="J7">
+        <v>0.9003520325209804</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1854676666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.556403</v>
+      </c>
+      <c r="O7">
+        <v>0.01040727444360334</v>
+      </c>
+      <c r="P7">
+        <v>0.01040727444360334</v>
+      </c>
+      <c r="Q7">
+        <v>223.5075711489318</v>
+      </c>
+      <c r="R7">
+        <v>2011.568140340386</v>
+      </c>
+      <c r="S7">
+        <v>0.009370210698301925</v>
+      </c>
+      <c r="T7">
+        <v>0.009370210698301925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>121.4707743333333</v>
+      </c>
+      <c r="H8">
+        <v>364.412323</v>
+      </c>
+      <c r="I8">
+        <v>0.09075281779937723</v>
+      </c>
+      <c r="J8">
+        <v>0.09075281779937722</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>17.47090666666666</v>
+      </c>
+      <c r="N8">
+        <v>52.41271999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.9803569739482672</v>
+      </c>
+      <c r="P8">
+        <v>0.9803569739482673</v>
+      </c>
+      <c r="Q8">
+        <v>2122.204561105395</v>
+      </c>
+      <c r="R8">
+        <v>19099.84104994856</v>
+      </c>
+      <c r="S8">
+        <v>0.08897015783507591</v>
+      </c>
+      <c r="T8">
+        <v>0.08897015783507589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>121.4707743333333</v>
+      </c>
+      <c r="H9">
+        <v>364.412323</v>
+      </c>
+      <c r="I9">
+        <v>0.09075281779937723</v>
+      </c>
+      <c r="J9">
+        <v>0.09075281779937722</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.16459</v>
+      </c>
+      <c r="N9">
+        <v>0.49377</v>
+      </c>
+      <c r="O9">
+        <v>0.0092357516081294</v>
+      </c>
+      <c r="P9">
+        <v>0.0092357516081294</v>
+      </c>
+      <c r="Q9">
+        <v>19.99287474752333</v>
+      </c>
+      <c r="R9">
+        <v>179.93587272771</v>
+      </c>
+      <c r="S9">
+        <v>0.0008381704829328727</v>
+      </c>
+      <c r="T9">
+        <v>0.0008381704829328726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>121.4707743333333</v>
+      </c>
+      <c r="H10">
+        <v>364.412323</v>
+      </c>
+      <c r="I10">
+        <v>0.09075281779937723</v>
+      </c>
+      <c r="J10">
+        <v>0.09075281779937722</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1854676666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.556403</v>
+      </c>
+      <c r="O10">
+        <v>0.01040727444360334</v>
+      </c>
+      <c r="P10">
+        <v>0.01040727444360334</v>
+      </c>
+      <c r="Q10">
+        <v>22.52890108379656</v>
+      </c>
+      <c r="R10">
+        <v>202.760109754169</v>
+      </c>
+      <c r="S10">
+        <v>0.0009444894813684492</v>
+      </c>
+      <c r="T10">
+        <v>0.0009444894813684491</v>
       </c>
     </row>
   </sheetData>
